--- a/Outputs/PARX/pred.xlsx
+++ b/Outputs/PARX/pred.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -38,14 +38,38 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -55,7 +79,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A463"/>
+  <dimension ref="A1:A464"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -63,2317 +87,2322 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>52.081524888072821</v>
+        <v>75.799430557610478</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>66.318317566341079</v>
+        <v>114.06363321134288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>72.333470788446448</v>
+        <v>140.31231942932249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>62.246906562639538</v>
+        <v>140.80063644932275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>64.019902024444448</v>
+        <v>151.57961908385337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>57.173246728999338</v>
+        <v>149.50578266559089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>57.924547982755094</v>
+        <v>153.03004820132571</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>63.031154180222458</v>
+        <v>162.79320870886349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>65.753328074925093</v>
+        <v>170.45442144905965</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>55.045799935975445</v>
+        <v>159.35996159322954</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>46.030142253737864</v>
+        <v>145.32265606961889</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>47.347620125462953</v>
+        <v>143.41134483269889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>50.24232899486254</v>
+        <v>145.18311547105048</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>39.628803620880191</v>
+        <v>128.48347692312822</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>36.458487680057758</v>
+        <v>119.67756027677369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>34.731194620892964</v>
+        <v>113.07933744773281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>32.483966199883014</v>
+        <v>107.86397569485496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>29.518842187861384</v>
+        <v>99.519416646948571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>29.49015639926532</v>
+        <v>95.12045004592548</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>35.723804392236417</v>
+        <v>102.83721674899923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>32.589392194290781</v>
+        <v>97.722308778379315</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>32.187802673157904</v>
+        <v>95.690016290057343</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>29.35671942873082</v>
+        <v>90.281208449351354</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>27.814251570859188</v>
+        <v>86.597466864852905</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>30.353254718636268</v>
+        <v>88.355169661083139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>31.184735232923018</v>
+        <v>89.170788046692465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>33.726695838908434</v>
+        <v>92.675303550627945</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>31.126896680662274</v>
+        <v>89.618946998586438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>31.552063221947694</v>
+        <v>89.540780800354867</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>26.833444215755975</v>
+        <v>82.392692521241898</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>26.439487716691588</v>
+        <v>80.190535286866179</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>26.277829408568479</v>
+        <v>78.085360549335093</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>23.524486398323582</v>
+        <v>73.055313901621162</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>19.412090012104073</v>
+        <v>65.371660537875059</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>17.171520344271968</v>
+        <v>59.793359856979194</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>16.821545155417986</v>
+        <v>56.807061223358424</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>16.195486425156169</v>
+        <v>53.854401734564846</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>19.337434215011776</v>
+        <v>56.727173561807717</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>18.178691400246155</v>
+        <v>53.625486249678133</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>16.499523956147634</v>
+        <v>50.669410440099405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>16.020038617181765</v>
+        <v>49.112699520386151</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>11.404992498876371</v>
+        <v>42.076076080038767</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>12.808988591343262</v>
+        <v>42.073434122401217</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>10.961648152464326</v>
+        <v>38.541411915008077</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>10.390536599567294</v>
+        <v>35.958619527925357</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>10.756147203276853</v>
+        <v>33.998667715236039</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>9.4078115535327598</v>
+        <v>31.222490814666248</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>8.6731936628555122</v>
+        <v>29.199935547563701</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>7.4021881938027247</v>
+        <v>26.544544759027279</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>9.757366989697978</v>
+        <v>29.58748969743543</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>12.782069006041894</v>
+        <v>33.843265693051151</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>9.2054588173366731</v>
+        <v>29.465774876663517</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>7.3880344910006146</v>
+        <v>25.247043378948121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>10.185036247446916</v>
+        <v>28.952802383770418</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>8.6612707380275502</v>
+        <v>26.749002473621587</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>7.831072853228723</v>
+        <v>25.876039583453508</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>7.2077409424032517</v>
+        <v>24.022206551500322</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>9.6514256911065015</v>
+        <v>26.874023025132409</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>9.2413033719247721</v>
+        <v>26.46038852232244</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>6.6370417228701442</v>
+        <v>22.182416769863003</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>6.2928252221017766</v>
+        <v>20.96686204327408</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>8.2821879967785215</v>
+        <v>23.266607458241012</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>7.6245360284986461</v>
+        <v>22.434033873228525</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>6.3954641414707183</v>
+        <v>20.555441042389528</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>7.4673477502858798</v>
+        <v>22.717362667666297</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>7.2129797554072628</v>
+        <v>22.353824981965218</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>5.8119525914998782</v>
+        <v>20.312945756931878</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>5.879900329634153</v>
+        <v>19.198292589782316</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>5.8803095303680291</v>
+        <v>18.70235962903034</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>4.574390485940957</v>
+        <v>16.392719520473378</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>4.7336438928125979</v>
+        <v>15.928916906103424</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>6.5619330740621447</v>
+        <v>18.154695550113445</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>4.5103808901610734</v>
+        <v>16.005861823801887</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>4.8938901542908777</v>
+        <v>14.990916165539945</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>4.9077178872811453</v>
+        <v>14.865158533468977</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>3.1737290398583435</v>
+        <v>13.117602203293398</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>2.2289945223119343</v>
+        <v>12.212201057873301</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.7327936050668864</v>
+        <v>10.178795554935233</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>3.6208285213231002</v>
+        <v>12.194500446119438</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>3.778731108935498</v>
+        <v>12.224884418932982</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>3.1590840531250666</v>
+        <v>10.188420322541116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>2.6899710613923324</v>
+        <v>9.70821534594897</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>4.6481214201949674</v>
+        <v>12.313541756329899</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>4.7738149462217576</v>
+        <v>12.833433160255243</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>3.5361549490126909</v>
+        <v>11.294651296008077</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>3.7325981441217397</v>
+        <v>11.415814403551222</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>3.8396268989101321</v>
+        <v>11.676051757588947</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>4.5938568334227714</v>
+        <v>11.70524011572792</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>4.7442498032392741</v>
+        <v>12.45596987449365</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>4.3908082075569155</v>
+        <v>13.264764169412324</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>5.0690028546511146</v>
+        <v>14.957019348911738</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>5.0031250825102038</v>
+        <v>15.344314153077942</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>3.2257100377114414</v>
+        <v>12.55559934651993</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>3.5634574809976183</v>
+        <v>12.37268473880075</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>5.2608759683491888</v>
+        <v>13.522747614087022</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>4.2369025786596062</v>
+        <v>12.462171324463686</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2.3728659928279128</v>
+        <v>10.102710329692133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>2.2280384899539345</v>
+        <v>9.2224424771802127</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>3.0198929997488828</v>
+        <v>9.8433188940225289</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2.1451795558258064</v>
+        <v>9.1384868240045183</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1.2381513066328351</v>
+        <v>7.580532591341183</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>2.1716338101039452</v>
+        <v>7.3084880862161219</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>2.1184005362017535</v>
+        <v>7.1020471335407587</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2.0893972866063772</v>
+        <v>6.9453894318094926</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1.6382146927349992</v>
+        <v>6.3082954945524889</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>2.2631568088767353</v>
+        <v>6.9874848649712069</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>2.6036459587724243</v>
+        <v>8.0919122544965685</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>3.6599170445407667</v>
+        <v>9.7139962931558479</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>2.6930300918785672</v>
+        <v>8.0172579096146617</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1.5317131612395909</v>
+        <v>6.4772490040409023</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>2.2051312494131832</v>
+        <v>7.1156952232013797</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>2.5720317133828789</v>
+        <v>7.8105460130877313</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1.9011699032080505</v>
+        <v>7.3014049801350369</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2.4064235111232923</v>
+        <v>8.5404964342696452</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2.2649821938805341</v>
+        <v>8.2052493165149638</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>2.6736471286284669</v>
+        <v>7.7825543270976327</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2.8272946718333589</v>
+        <v>8.106226071454234</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>2.4756262754564449</v>
+        <v>7.7074105448773471</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>3.1547870202235515</v>
+        <v>8.6936370237917018</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>2.2407338570322359</v>
+        <v>8.2660508214653827</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>2.1560485289176579</v>
+        <v>7.8707667293514909</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>3.4905542391672224</v>
+        <v>9.9669118746977787</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>3.3863309289487731</v>
+        <v>9.119391829610656</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>3.2155883954403222</v>
+        <v>9.1206851117648355</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>2.687181548250352</v>
+        <v>8.4772327128920288</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>4.1628008664031775</v>
+        <v>10.734976869968536</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>4.5093962448423905</v>
+        <v>12.392856637132622</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>3.8274715519904965</v>
+        <v>12.446217333846974</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>3.9891283903370822</v>
+        <v>12.289680206540954</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>3.6724689023274517</v>
+        <v>10.882024407134814</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>5.189453930197363</v>
+        <v>13.035993937144561</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>5.0687508152900094</v>
+        <v>14.39142237727153</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>6.0120723307685928</v>
+        <v>17.382027716315473</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>4.6608162337539003</v>
+        <v>15.979810331577484</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>4.7807315008355697</v>
+        <v>15.615580798524652</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>3.9852932214564483</v>
+        <v>14.050317632316162</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>3.8016962733249837</v>
+        <v>12.218083987995836</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>4.0558315305200985</v>
+        <v>12.116561233846111</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>3.663598158444354</v>
+        <v>11.395086893397512</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>3.3666527593653037</v>
+        <v>10.84759614329187</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>3.6402477408318976</v>
+        <v>11.076566633842596</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>4.6600726695032915</v>
+        <v>12.539188485611543</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>3.4983944274851209</v>
+        <v>11.91282744034616</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>4.8397155260790203</v>
+        <v>12.865936608694547</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>6.344032864540968</v>
+        <v>15.185919371103498</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>4.0385534793902567</v>
+        <v>12.435401477885977</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>4.8770828194314042</v>
+        <v>13.570340206922133</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>5.7693220219627541</v>
+        <v>15.749193139005836</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>5.3846821447958195</v>
+        <v>15.440576958928913</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>4.3043562814607608</v>
+        <v>13.917515981529711</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>4.9679682216799881</v>
+        <v>13.406175076959189</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>4.1104754739926044</v>
+        <v>12.37371026325096</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>3.6267750471931053</v>
+        <v>12.599980848240678</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>5.5234936270955508</v>
+        <v>14.984098861873374</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>3.5092240445320946</v>
+        <v>12.28224999932279</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>3.717925295972007</v>
+        <v>12.628058638524676</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>2.5296528388190502</v>
+        <v>10.494369049380474</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>3.7472803333636615</v>
+        <v>10.164086473706387</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>4.7183875685970929</v>
+        <v>11.846752983305439</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>3.1237128283734377</v>
+        <v>10.406353526878748</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>3.9432666888447843</v>
+        <v>11.386163512819659</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>4.0466678352500915</v>
+        <v>12.284648951854436</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>5.7522651161024285</v>
+        <v>14.744809275528013</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>8.4770232720387071</v>
+        <v>19.189436979693355</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>9.8597475857619372</v>
+        <v>20.923453260693456</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>8.5160221536792946</v>
+        <v>21.791907469939716</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>7.3502696419052187</v>
+        <v>20.670524089792195</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>9.9601506131328463</v>
+        <v>24.330599035950016</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>11.586410245513601</v>
+        <v>27.836626814582864</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>11.166308330433964</v>
+        <v>28.984606165332483</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>13.562332173934438</v>
+        <v>33.55406030792669</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>12.770674028878682</v>
+        <v>33.183724561080687</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>12.708101304071668</v>
+        <v>33.826240291865361</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>13.121183130021354</v>
+        <v>34.958247112783866</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>16.356310032618698</v>
+        <v>40.328307047035992</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>14.635868940860144</v>
+        <v>39.247906185062838</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>14.133896352528492</v>
+        <v>39.703575646990096</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>18.251948839516238</v>
+        <v>45.862600673498385</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>19.19802751185458</v>
+        <v>47.524573254993747</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>19.836646239091628</v>
+        <v>50.074628637921144</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>16.967451965653495</v>
+        <v>48.003579552247352</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>19.758026592839432</v>
+        <v>52.203131210325708</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>22.149185342260015</v>
+        <v>56.636755103899254</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>19.96892246606436</v>
+        <v>54.929886190836747</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>16.168759105311615</v>
+        <v>51.114367916673558</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>18.143505679174829</v>
+        <v>51.299510517127885</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>19.092637591754396</v>
+        <v>52.728873577725537</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>16.562091428567467</v>
+        <v>49.512874912895875</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>17.795650101124544</v>
+        <v>50.728651475117353</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>19.77387568614671</v>
+        <v>53.879057140531884</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>19.110155808312065</v>
+        <v>53.607860654510205</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>15.265493942254224</v>
+        <v>48.036226850042681</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>18.820913673056221</v>
+        <v>50.252531007331299</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>23.448467043567121</v>
+        <v>57.734277507299069</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>17.193768833908749</v>
+        <v>50.691416907693025</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>16.398286205466739</v>
+        <v>49.045252757296836</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>12.917216295159886</v>
+        <v>43.28502457144338</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>13.632898168805355</v>
+        <v>42.780478672548156</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>14.022825341993396</v>
+        <v>42.397604054336348</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>14.75941200712457</v>
+        <v>41.462625872568609</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>18.555013339297219</v>
+        <v>47.61818765461576</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>18.446079258501612</v>
+        <v>48.646434382793842</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>19.692870356195179</v>
+        <v>51.36002075455189</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>19.936782750371652</v>
+        <v>52.774791766937568</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>20.069674295999747</v>
+        <v>54.269122492483156</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>17.746366323086768</v>
+        <v>51.115760570840905</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>21.433557357403384</v>
+        <v>54.522736362341412</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>22.626689297844631</v>
+        <v>58.551944006020619</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>20.862513667252212</v>
+        <v>58.16363694100253</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>22.46276836041794</v>
+        <v>60.936182479641161</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>20.204702940484928</v>
+        <v>58.108359968821077</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>22.827930064552788</v>
+        <v>61.888590872347372</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>22.505137303840616</v>
+        <v>61.745415708839744</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>25.06730418313559</v>
+        <v>64.522350798652511</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>28.164353847301776</v>
+        <v>69.851796816709196</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>30.647656643951724</v>
+        <v>76.123860245671523</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>29.823738885102735</v>
+        <v>77.366733794132301</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>32.422505863717902</v>
+        <v>83.409949522225617</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>32.096877476474432</v>
+        <v>85.2498153697817</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>35.005212979165833</v>
+        <v>90.946668150752544</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>36.976612923412922</v>
+        <v>94.780247361398324</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>37.850875156243227</v>
+        <v>97.968469842075166</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>38.537478049263768</v>
+        <v>101.03228604263266</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>43.70074932993316</v>
+        <v>111.11920556130173</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>44.772347769233491</v>
+        <v>115.9434893630754</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>38.390099451742664</v>
+        <v>108.87272402864217</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>33.606697331166551</v>
+        <v>101.57377285761912</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>36.960604251257301</v>
+        <v>102.90003420553991</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>44.583138945716939</v>
+        <v>114.44111038569267</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>40.463915539600826</v>
+        <v>110.95481288202168</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>43.444194247485093</v>
+        <v>116.71561290465836</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>38.537238779428456</v>
+        <v>111.04202982608439</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>38.040670342172653</v>
+        <v>109.74843483102134</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>35.593220104035495</v>
+        <v>106.72267050622705</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>35.054435344723856</v>
+        <v>101.87550631832801</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>41.156236538727342</v>
+        <v>110.1336301159141</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>49.916722932156247</v>
+        <v>124.77794622864236</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>47.288254603836513</v>
+        <v>124.59882425349528</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>44.114655404590145</v>
+        <v>121.88516233208804</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>42.385573517563088</v>
+        <v>121.38260801684862</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>37.315296199688156</v>
+        <v>113.08434518781442</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>38.949902159273996</v>
+        <v>111.85853312937179</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>42.623178109089032</v>
+        <v>116.71489395715088</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>40.266825329886686</v>
+        <v>113.96914098961642</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>42.474930976079591</v>
+        <v>117.04099699997691</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>44.104481356569643</v>
+        <v>120.0165085131064</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>37.155462397325429</v>
+        <v>110.67466669874426</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>33.905928591176924</v>
+        <v>104.27211771667642</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>34.917041784218426</v>
+        <v>101.55721123457086</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>38.80298874754984</v>
+        <v>107.21687428646069</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>43.135654161674424</v>
+        <v>113.85034132747967</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>47.32245678037728</v>
+        <v>121.46188252669693</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>49.357857844555078</v>
+        <v>127.6165586673649</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>50.902192377773105</v>
+        <v>133.18390711750303</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>56.934434979975087</v>
+        <v>144.07672909713361</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>63.15087966040452</v>
+        <v>154.82299907294342</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>74.497975157032712</v>
+        <v>175.75359785264627</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>67.647025049443343</v>
+        <v>173.59263462854977</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>70.011186724009605</v>
+        <v>180.974861128284</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>81.746939415866265</v>
+        <v>202.0432745063986</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>85.964062607691318</v>
+        <v>215.35582081789235</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>83.998273028015888</v>
+        <v>218.50882932995481</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>93.523105308885377</v>
+        <v>233.21654225392206</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>106.82324998536811</v>
+        <v>259.19946665953057</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>122.17547457959165</v>
+        <v>291.04796572501448</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>128.32946578644305</v>
+        <v>312.20439378870071</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>133.98355931662417</v>
+        <v>331.95725776328521</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>137.93485794429537</v>
+        <v>348.1935115625829</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>142.38611374841526</v>
+        <v>363.76529774119302</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>137.33235678566771</v>
+        <v>358.79793043209406</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>155.03385849954515</v>
+        <v>391.28502998693745</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>148.5329963580902</v>
+        <v>391.92551953253928</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>147.16801480829045</v>
+        <v>395.633724006742</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>133.36290777498795</v>
+        <v>379.11468052063719</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>147.64685053033281</v>
+        <v>397.4432830175752</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>143.40160589492967</v>
+        <v>394.95992026630734</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>141.77788565883733</v>
+        <v>388.91430549688459</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>169.55810946349894</v>
+        <v>430.72582520212541</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>156.30777831930948</v>
+        <v>420.17430176676146</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>140.51945677129038</v>
+        <v>400.95946517587106</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>129.30517263163182</v>
+        <v>382.51168500859666</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>139.00363503226546</v>
+        <v>387.20116875979033</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>136.31615471906193</v>
+        <v>384.26003587942597</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>128.03365313508371</v>
+        <v>366.6171552873675</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>138.61157809164493</v>
+        <v>380.63166197675503</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>121.29960656172787</v>
+        <v>356.77499215324877</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>121.88122672228829</v>
+        <v>353.57748392098995</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>126.98729993547943</v>
+        <v>358.1556805304096</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>120.19088303122666</v>
+        <v>347.57852051365512</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>114.74644749246477</v>
+        <v>337.10052774439595</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>111.84025428324325</v>
+        <v>326.25038411573075</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>114.55353808573847</v>
+        <v>327.107571961058</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>104.70894475895236</v>
+        <v>311.00276993989786</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>105.53310645467459</v>
+        <v>304.58154636588188</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>95.875889066585898</v>
+        <v>288.10899282280252</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>95.403504686963871</v>
+        <v>282.69756864534719</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>86.438520771240832</v>
+        <v>266.62804375150478</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>84.743979998703949</v>
+        <v>255.03604659073252</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>101.57453543939062</v>
+        <v>275.02861574295326</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>101.12059983199686</v>
+        <v>277.98447020787302</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>84.817370238541187</v>
+        <v>253.83240617815363</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>85.024650967319701</v>
+        <v>250.24244533546519</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>81.654539061080996</v>
+        <v>242.3627333669055</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>70.240015949662961</v>
+        <v>222.20567078929793</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>68.06434092781231</v>
+        <v>207.55391914298923</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>68.93095547247448</v>
+        <v>204.81307796265858</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>59.389360499829849</v>
+        <v>188.33194514523805</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>59.234127689397326</v>
+        <v>180.55997732125141</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>54.54158843084614</v>
+        <v>170.15118346892032</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>50.678795733429659</v>
+        <v>160.57160871117478</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>40.301985810218184</v>
+        <v>141.43656546133394</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>43.369609533170383</v>
+        <v>134.01804720144872</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>44.156551184017488</v>
+        <v>132.25510800202409</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>39.796115743845576</v>
+        <v>124.45962762556913</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>37.988063091120075</v>
+        <v>115.33519492183707</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>34.69379660538867</v>
+        <v>108.41111983671541</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>35.946635831278456</v>
+        <v>107.66782260997968</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>28.792372166207798</v>
+        <v>95.75640216550336</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>32.363469358402384</v>
+        <v>92.475252707368654</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>32.935473761344049</v>
+        <v>92.997155788949357</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>35.975235881059966</v>
+        <v>96.615370933664735</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>37.523359948642224</v>
+        <v>96.783318005953419</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>30.522184980517707</v>
+        <v>88.533125152165553</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>26.272332461781893</v>
+        <v>82.174984507948636</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>28.746059441894516</v>
+        <v>84.48095499846859</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>28.340694505198556</v>
+        <v>79.465318112179034</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>26.389926235987435</v>
+        <v>77.016815297905595</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>22.842716914383651</v>
+        <v>71.754971313718954</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>24.258848227073813</v>
+        <v>69.527030072923409</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>26.77828525928857</v>
+        <v>73.257602617610146</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>28.150957945537741</v>
+        <v>76.635498719463143</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>25.851170814664485</v>
+        <v>74.182900069546434</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>26.465279783151082</v>
+        <v>68.805064442108161</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>26.674280211407385</v>
+        <v>70.902657188127833</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>25.046627908406101</v>
+        <v>70.673997389790955</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>30.24961537829023</v>
+        <v>74.519973379264542</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>31.348395482804069</v>
+        <v>78.727359587462587</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>28.464001944293059</v>
+        <v>76.76466385411581</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>27.3278695371921</v>
+        <v>75.919706147377937</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>28.57465809025355</v>
+        <v>72.056341024158257</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>26.517397341109522</v>
+        <v>71.057928102799067</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>30.621101553620601</v>
+        <v>78.033488202251633</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>31.416500258270144</v>
+        <v>77.779426324644717</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>29.807249670704824</v>
+        <v>77.978626185271921</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>26.318192704790789</v>
+        <v>75.272942582015233</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>32.352163484649431</v>
+        <v>83.165353047147718</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>30.912524775378891</v>
+        <v>77.554699640334448</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>26.920383165428575</v>
+        <v>74.109782260598465</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>29.099138915136351</v>
+        <v>78.150310943645081</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>31.264955322186395</v>
+        <v>80.461213590953435</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>29.724682973525386</v>
+        <v>80.01370025476993</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>23.225542990711574</v>
+        <v>71.296465315347731</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>26.438399415118376</v>
+        <v>74.726557975089904</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>29.070531122478389</v>
+        <v>73.084222039325454</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>26.787565382016751</v>
+        <v>71.837935535445013</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>29.897536717605185</v>
+        <v>77.336529173179201</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>30.349981452810439</v>
+        <v>76.998099908565862</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>27.92003293414659</v>
+        <v>75.452415274162234</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>23.113071243986383</v>
+        <v>70.091685403798181</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>22.133820428779547</v>
+        <v>67.78870461556086</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>29.249369067897216</v>
+        <v>71.686035364130348</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>34.286473493732018</v>
+        <v>82.195101412657309</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>29.194002765364139</v>
+        <v>78.696316456662771</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>29.858749811351675</v>
+        <v>78.674408194415719</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>33.747722965699538</v>
+        <v>86.335579562378172</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>32.81889961712757</v>
+        <v>87.04919766324096</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>34.269969686937351</v>
+        <v>90.252608299678329</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>37.551632081511407</v>
+        <v>91.073464249534737</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>43.224310088234603</v>
+        <v>102.83337420183386</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>38.862045449034902</v>
+        <v>100.8574155220454</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>40.829919747644851</v>
+        <v>105.80229748283941</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>37.112895501782077</v>
+        <v>102.46594892920544</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>34.80930821449639</v>
+        <v>98.000859657214889</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>34.703885899562181</v>
+        <v>94.094312740225533</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>32.06870607216414</v>
+        <v>89.714742734041181</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>29.984231574895816</v>
+        <v>83.981863872489683</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>35.557612237853263</v>
+        <v>92.604291658891611</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>34.061137127017147</v>
+        <v>90.517341764046591</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>33.42503868945046</v>
+        <v>91.498059178401888</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>31.336948552336843</v>
+        <v>89.033443521771758</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>29.502297777110741</v>
+        <v>85.874302500401001</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>30.523827024706087</v>
+        <v>82.09063855232661</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>29.756272409888748</v>
+        <v>82.189135365530916</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>30.644225240900283</v>
+        <v>83.90266878989037</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>31.112493160499717</v>
+        <v>83.564194377832081</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>31.818519859029902</v>
+        <v>86.053371057738133</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>29.155521928665046</v>
+        <v>83.80990461865828</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>30.980368587371533</v>
+        <v>85.763687188753309</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>36.823700115455445</v>
+        <v>90.131898500248624</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>38.848600415493777</v>
+        <v>96.374372069009667</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>37.339549140270293</v>
+        <v>97.244869841202132</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>36.908740235032461</v>
+        <v>94.683277981808331</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>33.234984461756156</v>
+        <v>91.450546576113624</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>29.491878064423656</v>
+        <v>86.419653363264118</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>30.099515538914218</v>
+        <v>85.17969564302966</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>25.846034355749911</v>
+        <v>74.572246729261337</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>25.466133479072116</v>
+        <v>73.948142245342225</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>31.780479705088087</v>
+        <v>82.791126179761207</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>34.631820576040759</v>
+        <v>84.822294506635984</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>36.348249902649272</v>
+        <v>90.41187805174124</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>29.44656546886533</v>
+        <v>83.13787097569319</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>28.416046929134946</v>
+        <v>79.509219474957106</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>30.023602134075027</v>
+        <v>78.002411978089484</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>28.177591341948144</v>
+        <v>76.858971220082879</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>28.043923559215397</v>
+        <v>75.346837479155141</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>27.570144295453936</v>
+        <v>71.621619677474868</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>26.405485640710381</v>
+        <v>71.456620016231923</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>30.560128355066574</v>
+        <v>79.2195724101108</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>33.196198185869235</v>
+        <v>85.252108930336064</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>33.165602161077338</v>
+        <v>83.075647358197543</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>39.032450887749917</v>
+        <v>94.241905439328647</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>32.546132626395789</v>
+        <v>85.960140607242465</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>34.341136746267715</v>
+        <v>89.986464869492266</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>34.883733740284669</v>
+        <v>92.39740693338139</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>38.662403850180169</v>
+        <v>99.382420588495677</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>37.064320080051722</v>
+        <v>96.768163240649699</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>36.607768432068688</v>
+        <v>94.531895136597669</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>30.894101744053884</v>
+        <v>88.113500685475145</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>28.216487678708017</v>
+        <v>83.887336334959798</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>34.223730699598086</v>
+        <v>87.769083694213023</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>28.289057087369237</v>
+        <v>81.30067941095453</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>32.02174108723657</v>
+        <v>86.534779453306669</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>28.967472560340628</v>
+        <v>80.756022426396569</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>28.615460632052127</v>
+        <v>79.537572891762039</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>27.271584819766346</v>
+        <v>75.446192742582426</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>27.984343210347223</v>
+        <v>76.852485859330102</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>30.908802401402102</v>
+        <v>77.177735076617395</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>33.013684382023754</v>
+        <v>82.677503273548894</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>32.418971100724434</v>
+        <v>84.946437696130559</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>31.028972038664818</v>
+        <v>82.030962219892729</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>27.533741980749181</v>
+        <v>75.489146002152424</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>31.174839753389271</v>
+        <v>81.396117578772561</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>29.954226991138192</v>
+        <v>80.204937825223837</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>29.85447884668055</v>
+        <v>77.088598560105325</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>28.085447377147013</v>
+        <v>76.291743529259676</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>24.509336498133287</v>
+        <v>71.946666866259932</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>22.067289852805512</v>
+        <v>64.53036381675409</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>18.998344107272271</v>
+        <v>57.613635182040724</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>21.735285179316378</v>
+        <v>60.742515644297654</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>17.78370926308385</v>
+        <v>55.159958722393633</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>25.498031353646724</v>
+        <v>61.150430339059874</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>21.358103953346898</v>
+        <v>57.710654504620976</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>16.925631160240272</v>
+        <v>51.794065466927826</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>15.213078670285382</v>
+        <v>46.015394699609644</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>17.184733263049271</v>
+        <v>47.374745846821071</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>17.264124654413937</v>
+        <v>47.817264778940512</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>14.450412454037258</v>
+        <v>44.06276544341042</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>13.514441695409396</v>
+        <v>41.902235968260122</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>10.475241026401768</v>
+        <v>36.575679195356756</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>10.125525897650249</v>
+        <v>34.466923398413762</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>12.37198059993209</v>
+        <v>34.155561829114937</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>11.443695137281935</v>
+        <v>32.630417513306924</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>8.9116490981759231</v>
+        <v>29.273985300144947</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>9.1950171169774588</v>
+        <v>28.534038826139781</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>10.952923577648081</v>
+        <v>26.431223778759687</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>9.5150218354111207</v>
+        <v>25.522009725589708</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>8.7316053729866958</v>
+        <v>25.252784555323043</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>8.2510495009134637</v>
+        <v>23.296810411107245</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>7.2921672314894455</v>
+        <v>20.818164256871679</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>5.3436172927313086</v>
+        <v>17.998297706460679</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>5.257459927081606</v>
+        <v>16.110881290597789</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>9.3531518849502255</v>
+        <v>17.858711327447612</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>9.9495552567569678</v>
+        <v>20.907987516482375</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464">
+        <v>7.3401650043188109</v>
       </c>
     </row>
   </sheetData>
